--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4EDE5-6688-4AB0-8476-4265A74119CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035F2EF-68BA-4AC3-9189-74E74C14D4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3030" windowWidth="24525" windowHeight="12975" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -63,19 +63,6 @@
   </si>
   <si>
     <t>Des</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主人公普通攻撃</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -89,10 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TargetFreezeTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ReadyTime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,16 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>魔法攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>近い範囲攻撃</t>
     <rPh sb="0" eb="1">
       <t>チカ</t>
@@ -158,12 +131,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>魔法弾範囲攻撃（目標の位置で爆発）</t>
+    <t>Icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_008</t>
+  </si>
+  <si>
+    <t>剣の普通攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法の普通攻撃</t>
     <rPh sb="0" eb="2">
       <t>マホウ</t>
     </rPh>
+    <rPh sb="3" eb="5">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転斬り</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>ダン</t>
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ため斬り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メガビーム</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直前の範囲攻撃（ビーム）</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ハンイ</t>
@@ -171,36 +199,157 @@
     <rPh sb="5" eb="7">
       <t>コウゲキ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メテオ</t>
+  </si>
+  <si>
+    <t>連発</t>
+    <rPh sb="0" eb="2">
+      <t>レンパツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>矢の雨</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回復++</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回復+</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_011</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_012</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_013</t>
+  </si>
+  <si>
+    <t>魔法範囲攻撃（目標の位置で爆発）</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>モクヒョウ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="10" eb="12">
       <t>イチ</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="13" eb="15">
       <t>バクハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/matter_2d_008</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキル範囲攻撃</t>
-    <rPh sb="3" eb="5">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
+    <t>AttackCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadyAnimation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_003</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_004</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_005</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_006</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_007</t>
+  </si>
+  <si>
+    <t>NextSkill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体回復</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_002</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_003</t>
+  </si>
+  <si>
+    <t>CanEquipment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -208,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +370,20 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -247,15 +410,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -269,21 +464,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:L7" totalsRowShown="0">
-  <autoFilter ref="A1:L7" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:Q17" totalsRowShown="0">
+  <autoFilter ref="A1:Q17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
+    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Des" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{87C98330-77BA-4B70-BAF3-85B925A60B6A}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact"/>
+    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{B80D765F-C72C-48AA-9831-231097D93435}" name="Animation"/>
     <tableColumn id="7" xr3:uid="{A4F10961-EF1E-4E93-B937-DC579290B549}" name="CD"/>
     <tableColumn id="5" xr3:uid="{193803D1-307E-49E3-879F-4D756EE88520}" name="Distance"/>
     <tableColumn id="4" xr3:uid="{2853989A-9A81-4D99-82F4-E4D539C0CC81}" name="RangeAngle"/>
+    <tableColumn id="13" xr3:uid="{3471E923-B119-4112-854D-B8669119A0ED}" name="Radius"/>
     <tableColumn id="11" xr3:uid="{3EB91E66-11F1-49FA-B513-D70071D167EB}" name="ReadyTime"/>
     <tableColumn id="8" xr3:uid="{7CBF0C37-0A0F-4B1E-858F-42EEB59A0F87}" name="ProcessTime"/>
-    <tableColumn id="10" xr3:uid="{4072A46E-FFE6-483C-9D6E-01A23DD10517}" name="TargetFreezeTime"/>
-    <tableColumn id="9" xr3:uid="{F27EFBA6-DFF0-4AD7-AFEE-B7103C61A63F}" name="Des"/>
+    <tableColumn id="17" xr3:uid="{D8A0C532-D9ED-440D-87E0-0870D56548E2}" name="AttackCount"/>
+    <tableColumn id="18" xr3:uid="{56AF97E1-4801-41AF-8541-D9E95866C30F}" name="Interval"/>
+    <tableColumn id="10" xr3:uid="{2AB7669D-69D3-42F0-ADB8-1003F2C61BE7}" name="NextSkill"/>
+    <tableColumn id="16" xr3:uid="{7CE2A499-2227-4726-89B3-28EE778E914C}" name="CanEquipment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,283 +786,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
         <v>80</v>
       </c>
-      <c r="F2">
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>180</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>180</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
-      </c>
-      <c r="J2">
-        <v>0.3</v>
-      </c>
-      <c r="K2">
-        <v>0.5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>180</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>82</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>360</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.3</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>79</v>
+      </c>
+      <c r="G8">
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>78</v>
+      </c>
+      <c r="G9">
+        <v>102</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <v>103</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>103</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>76</v>
+      </c>
+      <c r="G13">
+        <v>104</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>1.5</v>
+      </c>
+      <c r="M13">
+        <v>0.3</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>104</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>0.3</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>76</v>
+      </c>
+      <c r="G15">
+        <v>104</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15">
+        <v>0.3</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.3</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17">
         <v>81</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>0.2</v>
-      </c>
-      <c r="J3">
-        <v>0.3</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>81</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>360</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>80</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>0.2</v>
-      </c>
-      <c r="J6">
-        <v>0.5</v>
-      </c>
-      <c r="K6">
-        <v>0.3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>101</v>
-      </c>
-      <c r="E7">
-        <v>81</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
+      <c r="J17">
         <v>60</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB5D61-8D30-4CD9-B090-D9C9F63F174F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -905,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -913,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -921,11 +1628,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035F2EF-68BA-4AC3-9189-74E74C14D4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A0309-4300-4352-9B68-FADC1708D239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -351,6 +351,50 @@
   <si>
     <t>4</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadyEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadyTargetEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttackerEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TargetEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadyEffectTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadyTargetEffectTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttackerEffectTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TargetEffectTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_100_R1</t>
+  </si>
+  <si>
+    <t>Skill_100_1</t>
+  </si>
+  <si>
+    <t>Skill_101_R1</t>
+  </si>
+  <si>
+    <t>Skill_101_2</t>
   </si>
 </sst>
 </file>
@@ -464,15 +508,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:Q17" totalsRowShown="0">
-  <autoFilter ref="A1:Q17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:Y17" totalsRowShown="0">
+  <autoFilter ref="A1:Y17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
     <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Des" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{87C98330-77BA-4B70-BAF3-85B925A60B6A}" name="Type"/>
     <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{DE7C63D8-EDB3-412D-85A4-D4C610C3EBD1}" name="ReadyEffect"/>
+    <tableColumn id="22" xr3:uid="{6D734518-970C-42AD-BA43-FA76C581EA2B}" name="ReadyEffectTime"/>
+    <tableColumn id="19" xr3:uid="{B9A8AA30-B8E8-4743-ADA5-AF6F040FA18E}" name="ReadyTargetEffect"/>
+    <tableColumn id="23" xr3:uid="{F3FA4B30-A376-4A23-8BF1-FF637B29B502}" name="ReadyTargetEffectTime"/>
+    <tableColumn id="20" xr3:uid="{D20266C8-DF3D-4618-9001-D915276DD9E2}" name="AttackerEffect"/>
+    <tableColumn id="24" xr3:uid="{86446E67-BC10-4AD9-9392-5B31E702055C}" name="AttackerEffectTime"/>
+    <tableColumn id="21" xr3:uid="{B6B1A075-5D58-451C-8561-13F0DF23AFA6}" name="TargetEffect"/>
+    <tableColumn id="25" xr3:uid="{9740164F-2E33-4CC9-A0FF-4ADAA31416E7}" name="TargetEffectTime"/>
     <tableColumn id="12" xr3:uid="{B80D765F-C72C-48AA-9831-231097D93435}" name="Animation"/>
     <tableColumn id="7" xr3:uid="{A4F10961-EF1E-4E93-B937-DC579290B549}" name="CD"/>
     <tableColumn id="5" xr3:uid="{193803D1-307E-49E3-879F-4D756EE88520}" name="Distance"/>
@@ -786,13 +838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -802,16 +854,18 @@
     <col min="4" max="4" width="7.375" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="14" width="10.125" style="2" customWidth="1"/>
+    <col min="15" max="16" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.875" customWidth="1"/>
+    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="21" max="21" width="15.625" customWidth="1"/>
+    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -831,40 +885,64 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -881,38 +959,46 @@
         <v>1</v>
       </c>
       <c r="F2"/>
-      <c r="G2">
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2">
         <v>80</v>
       </c>
-      <c r="H2">
+      <c r="P2">
         <v>0.5</v>
       </c>
-      <c r="I2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="R2">
         <v>180</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>0.3</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -929,35 +1015,43 @@
         <v>1</v>
       </c>
       <c r="F3"/>
-      <c r="G3">
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3">
         <v>81</v>
       </c>
-      <c r="H3">
+      <c r="P3">
         <v>0.5</v>
       </c>
-      <c r="I3">
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="R3">
         <v>180</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>0.3</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -974,32 +1068,40 @@
         <v>1</v>
       </c>
       <c r="F4"/>
-      <c r="G4">
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4">
         <v>82</v>
       </c>
-      <c r="H4">
+      <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="I4">
+      <c r="Q4">
         <v>10</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>0.3</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1016,35 +1118,43 @@
         <v>1</v>
       </c>
       <c r="F5"/>
-      <c r="G5">
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5">
         <v>80</v>
       </c>
-      <c r="H5">
+      <c r="P5">
         <v>0.5</v>
       </c>
-      <c r="I5">
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>0.3</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>21</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>21</v>
       </c>
@@ -1061,32 +1171,40 @@
         <v>1</v>
       </c>
       <c r="F6"/>
-      <c r="G6">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6">
         <v>81</v>
       </c>
-      <c r="H6">
+      <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="I6">
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>0.3</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1102,36 +1220,54 @@
       <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="F7"/>
-      <c r="G7">
+      <c r="F7">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7">
         <v>100</v>
       </c>
-      <c r="H7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="R7">
         <v>360</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>0.3</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1150,32 +1286,48 @@
       <c r="F8">
         <v>79</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8">
         <v>101</v>
       </c>
-      <c r="H8">
+      <c r="P8">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.3</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1194,35 +1346,43 @@
       <c r="F9">
         <v>78</v>
       </c>
-      <c r="G9">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9">
         <v>102</v>
       </c>
-      <c r="H9">
+      <c r="P9">
         <v>5</v>
       </c>
-      <c r="I9">
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="K9">
+      <c r="S9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="V9">
         <v>6</v>
       </c>
-      <c r="O9">
+      <c r="W9">
         <v>0.5</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1241,35 +1401,43 @@
       <c r="F10">
         <v>78</v>
       </c>
-      <c r="G10">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10">
         <v>102</v>
       </c>
-      <c r="H10">
+      <c r="P10">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="Q10">
         <v>15</v>
       </c>
-      <c r="K10">
+      <c r="S10">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1288,32 +1456,40 @@
       <c r="F11">
         <v>77</v>
       </c>
-      <c r="G11">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11">
         <v>103</v>
       </c>
-      <c r="H11">
+      <c r="P11">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="Q11">
         <v>15</v>
       </c>
-      <c r="L11">
+      <c r="T11">
         <v>0.5</v>
       </c>
-      <c r="M11">
+      <c r="U11">
         <v>0.5</v>
       </c>
-      <c r="N11">
+      <c r="V11">
         <v>5</v>
       </c>
-      <c r="O11">
+      <c r="W11">
         <v>0.3</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1332,35 +1508,43 @@
       <c r="F12">
         <v>77</v>
       </c>
-      <c r="G12">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12">
         <v>103</v>
       </c>
-      <c r="H12">
+      <c r="P12">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="Q12">
         <v>15</v>
       </c>
-      <c r="K12">
+      <c r="S12">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>3</v>
       </c>
-      <c r="N12">
+      <c r="V12">
         <v>15</v>
       </c>
-      <c r="O12">
+      <c r="W12">
         <v>0.2</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1379,29 +1563,37 @@
       <c r="F13">
         <v>76</v>
       </c>
-      <c r="G13">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13">
         <v>104</v>
       </c>
-      <c r="H13">
+      <c r="P13">
         <v>10</v>
       </c>
-      <c r="L13">
+      <c r="T13">
         <v>1.5</v>
       </c>
-      <c r="M13">
+      <c r="U13">
         <v>0.3</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1420,29 +1612,37 @@
       <c r="F14">
         <v>76</v>
       </c>
-      <c r="G14">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14">
         <v>104</v>
       </c>
-      <c r="H14">
+      <c r="P14">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="T14">
         <v>1.5</v>
       </c>
-      <c r="M14">
+      <c r="U14">
         <v>0.3</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1461,29 +1661,37 @@
       <c r="F15">
         <v>76</v>
       </c>
-      <c r="G15">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15">
         <v>104</v>
       </c>
-      <c r="H15">
+      <c r="P15">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="T15">
         <v>1.5</v>
       </c>
-      <c r="M15">
+      <c r="U15">
         <v>0.3</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -1502,32 +1710,40 @@
       <c r="F16">
         <v>79</v>
       </c>
-      <c r="G16">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16">
         <v>80</v>
       </c>
-      <c r="H16">
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="Q16">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>0.3</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001</v>
       </c>
@@ -1544,31 +1760,39 @@
         <v>1</v>
       </c>
       <c r="F17"/>
-      <c r="G17">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17">
         <v>81</v>
       </c>
-      <c r="H17">
+      <c r="P17">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="Q17">
         <v>4</v>
       </c>
-      <c r="J17">
+      <c r="R17">
         <v>60</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A0309-4300-4352-9B68-FADC1708D239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9672B-AD4C-4E10-BFE8-88D4F179E77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="3585" yWindow="1965" windowWidth="17430" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -395,6 +395,38 @@
   </si>
   <si>
     <t>Skill_101_2</t>
+  </si>
+  <si>
+    <t>DelayDamageTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_102_1</t>
+  </si>
+  <si>
+    <t>Skill_102_2</t>
+  </si>
+  <si>
+    <t>Skill_102_R1</t>
+  </si>
+  <si>
+    <t>Skill_103_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_103_2</t>
+  </si>
+  <si>
+    <t>Skill_104_R1</t>
+  </si>
+  <si>
+    <t>Skill_104_1</t>
+  </si>
+  <si>
+    <t>Skill_105_R1</t>
+  </si>
+  <si>
+    <t>Skill_105_2</t>
   </si>
 </sst>
 </file>
@@ -508,9 +540,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:Y17" totalsRowShown="0">
-  <autoFilter ref="A1:Y17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:Z17" totalsRowShown="0">
+  <autoFilter ref="A1:Z17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
     <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Des" dataDxfId="2"/>
@@ -534,6 +566,7 @@
     <tableColumn id="8" xr3:uid="{7CBF0C37-0A0F-4B1E-858F-42EEB59A0F87}" name="ProcessTime"/>
     <tableColumn id="17" xr3:uid="{D8A0C532-D9ED-440D-87E0-0870D56548E2}" name="AttackCount"/>
     <tableColumn id="18" xr3:uid="{56AF97E1-4801-41AF-8541-D9E95866C30F}" name="Interval"/>
+    <tableColumn id="26" xr3:uid="{5AA8F22E-889D-4354-9898-4DEAAA95B058}" name="DelayDamageTime"/>
     <tableColumn id="10" xr3:uid="{2AB7669D-69D3-42F0-ADB8-1003F2C61BE7}" name="NextSkill"/>
     <tableColumn id="16" xr3:uid="{7CE2A499-2227-4726-89B3-28EE778E914C}" name="CanEquipment"/>
   </tableColumns>
@@ -838,13 +871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -863,9 +896,10 @@
     <col min="21" max="21" width="15.625" customWidth="1"/>
     <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,13 +970,16 @@
         <v>37</v>
       </c>
       <c r="X1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -992,13 +1029,16 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>2</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1048,10 +1088,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1097,11 +1140,14 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1148,13 +1194,16 @@
         <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>21</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>21</v>
       </c>
@@ -1201,10 +1250,13 @@
         <v>0</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1263,11 +1315,14 @@
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1294,14 +1349,12 @@
       </c>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>66</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="M8"/>
-      <c r="N8"/>
       <c r="O8">
         <v>101</v>
       </c>
@@ -1309,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1323,11 +1376,14 @@
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1346,14 +1402,26 @@
       <c r="F9">
         <v>78</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
       <c r="O9">
         <v>102</v>
       </c>
@@ -1370,19 +1438,22 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V9">
         <v>6</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+        <v>0.2</v>
+      </c>
+      <c r="X9">
+        <v>1.8</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1401,14 +1472,22 @@
       <c r="F10">
         <v>78</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
       <c r="O10">
         <v>102</v>
       </c>
@@ -1422,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1433,11 +1512,14 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X10">
+        <v>0.7</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1456,12 +1538,20 @@
       <c r="F11">
         <v>77</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11">
@@ -1480,16 +1570,19 @@
         <v>0.5</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>0.3</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1508,14 +1601,22 @@
       <c r="F12">
         <v>77</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
       <c r="O12">
         <v>103</v>
       </c>
@@ -1532,19 +1633,22 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W12">
         <v>0.2</v>
       </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1589,11 +1693,14 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1638,11 +1745,14 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1687,11 +1797,14 @@
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -1739,11 +1852,14 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001</v>
       </c>
@@ -1792,7 +1908,10 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9672B-AD4C-4E10-BFE8-88D4F179E77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1DABDF-A045-49A5-8175-C0497B1350D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="1965" windowWidth="17430" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -417,16 +417,46 @@
     <t>Skill_103_2</t>
   </si>
   <si>
+    <t>Skill_104_1</t>
+  </si>
+  <si>
+    <t>Skill_105_2</t>
+  </si>
+  <si>
+    <t>Skill_106_R1</t>
+  </si>
+  <si>
+    <t>Skill_107_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Skill_104_R1</t>
-  </si>
-  <si>
-    <t>Skill_104_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_104_2</t>
+  </si>
+  <si>
+    <t>Skill_108_1</t>
+  </si>
+  <si>
+    <t>Skill_106_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_107_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_108_R1</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Skill_105_R1</t>
-  </si>
-  <si>
-    <t>Skill_105_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_105_1</t>
   </si>
 </sst>
 </file>
@@ -874,10 +904,10 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1539,7 +1569,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1547,13 +1577,17 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
       <c r="O11">
         <v>103</v>
       </c>
@@ -1570,13 +1604,13 @@
         <v>0.5</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1602,17 +1636,21 @@
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1667,12 +1705,20 @@
       <c r="F13">
         <v>76</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
+      <c r="G13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13">
@@ -1682,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="T13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0.3</v>
@@ -1719,12 +1765,20 @@
       <c r="F14">
         <v>76</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14">
@@ -1734,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="T14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U14">
         <v>0.3</v>
@@ -1771,12 +1825,20 @@
       <c r="F15">
         <v>76</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15">
@@ -1786,7 +1848,7 @@
         <v>10</v>
       </c>
       <c r="T15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>0.3</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1DABDF-A045-49A5-8175-C0497B1350D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7A3EE-41CF-4DE5-994A-BA1F015F3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1965" windowWidth="17430" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>Skill_105_1</t>
+  </si>
+  <si>
+    <t>TargetEffectParentInModel</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -570,9 +574,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:Z17" totalsRowShown="0">
-  <autoFilter ref="A1:Z17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AA17" totalsRowShown="0">
+  <autoFilter ref="A1:AA17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
     <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Des" dataDxfId="2"/>
@@ -587,6 +591,7 @@
     <tableColumn id="24" xr3:uid="{86446E67-BC10-4AD9-9392-5B31E702055C}" name="AttackerEffectTime"/>
     <tableColumn id="21" xr3:uid="{B6B1A075-5D58-451C-8561-13F0DF23AFA6}" name="TargetEffect"/>
     <tableColumn id="25" xr3:uid="{9740164F-2E33-4CC9-A0FF-4ADAA31416E7}" name="TargetEffectTime"/>
+    <tableColumn id="28" xr3:uid="{5A6D6027-2958-4C87-9327-2B278187D2AE}" name="TargetEffectParentInModel"/>
     <tableColumn id="12" xr3:uid="{B80D765F-C72C-48AA-9831-231097D93435}" name="Animation"/>
     <tableColumn id="7" xr3:uid="{A4F10961-EF1E-4E93-B937-DC579290B549}" name="CD"/>
     <tableColumn id="5" xr3:uid="{193803D1-307E-49E3-879F-4D756EE88520}" name="Distance"/>
@@ -901,13 +906,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -918,18 +923,18 @@
     <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="14" width="10.125" style="2" customWidth="1"/>
-    <col min="15" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.875" customWidth="1"/>
-    <col min="20" max="20" width="13.125" customWidth="1"/>
-    <col min="21" max="21" width="15.625" customWidth="1"/>
-    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,43 +978,46 @@
         <v>62</v>
       </c>
       <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1034,41 +1042,42 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2">
+      <c r="O2"/>
+      <c r="P2">
         <v>80</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.5</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>180</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>0.3</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1093,38 +1102,39 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3">
+      <c r="O3"/>
+      <c r="P3">
         <v>81</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.5</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>180</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>0.3</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1149,35 +1159,36 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4">
+      <c r="O4"/>
+      <c r="P4">
         <v>82</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.5</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>10</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>0.3</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1202,38 +1213,39 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5">
+      <c r="O5"/>
+      <c r="P5">
         <v>80</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>10</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>0.3</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>21</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>21</v>
       </c>
@@ -1258,35 +1270,36 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6">
+      <c r="O6"/>
+      <c r="P6">
         <v>81</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>0.3</v>
       </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1321,38 +1334,39 @@
       </c>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7">
+      <c r="O7"/>
+      <c r="P7">
         <v>100</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
       </c>
       <c r="Q7">
         <v>5</v>
       </c>
       <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
         <v>360</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
       <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
         <v>0.3</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1385,18 +1399,16 @@
       <c r="N8">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="O8"/>
+      <c r="P8">
         <v>101</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>10</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
         <v>1</v>
       </c>
@@ -1404,16 +1416,19 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1452,38 +1467,39 @@
       <c r="N9">
         <v>3</v>
       </c>
-      <c r="O9">
+      <c r="O9"/>
+      <c r="P9">
         <v>102</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>15</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>5</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
       <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
         <v>2.5</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>6</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.2</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1.8</v>
       </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1518,38 +1534,39 @@
       <c r="N10">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="O10"/>
+      <c r="P10">
         <v>102</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>15</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>5</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.5</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>0.7</v>
       </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1589,34 +1606,37 @@
         <v>2</v>
       </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>103</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>15</v>
-      </c>
-      <c r="T11">
-        <v>0.5</v>
       </c>
       <c r="U11">
         <v>0.5</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1655,38 +1675,39 @@
       <c r="N12">
         <v>3</v>
       </c>
-      <c r="O12">
+      <c r="O12"/>
+      <c r="P12">
         <v>103</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>5</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>15</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>5</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
         <v>1</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="W12">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X12">
         <v>0.5</v>
       </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1721,32 +1742,33 @@
       </c>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13">
+      <c r="O13"/>
+      <c r="P13">
         <v>104</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>10</v>
       </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
       <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
         <v>0.3</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1781,32 +1803,33 @@
       </c>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14">
+      <c r="O14"/>
+      <c r="P14">
         <v>104</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
       <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
         <v>0.3</v>
       </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1841,32 +1864,33 @@
       </c>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15">
+      <c r="O15"/>
+      <c r="P15">
         <v>104</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>10</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
       <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
         <v>0.3</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -1893,35 +1917,36 @@
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16">
+      <c r="O16"/>
+      <c r="P16">
         <v>80</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3</v>
       </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+      <c r="R16">
+        <v>2</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>0.3</v>
       </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001</v>
       </c>
@@ -1946,21 +1971,19 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17">
+      <c r="O17"/>
+      <c r="P17">
         <v>81</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>10</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>4</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>60</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
       <c r="U17">
         <v>1</v>
       </c>
@@ -1968,12 +1991,15 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Z17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7A3EE-41CF-4DE5-994A-BA1F015F3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76A2AC-41D3-4EAC-BF75-84258B46D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -912,7 +912,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AA16">
         <v>1</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76A2AC-41D3-4EAC-BF75-84258B46D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED98EE-0B0E-43C5-BD31-64353FE3B44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -417,49 +417,77 @@
     <t>Skill_103_2</t>
   </si>
   <si>
+    <t>Skill_105_2</t>
+  </si>
+  <si>
+    <t>Skill_106_R1</t>
+  </si>
+  <si>
+    <t>Skill_107_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_104_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_104_2</t>
+  </si>
+  <si>
+    <t>Skill_108_1</t>
+  </si>
+  <si>
+    <t>Skill_106_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_107_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_108_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_105_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_105_1</t>
+  </si>
+  <si>
+    <t>TargetEffectParentInModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Skill_104_1</t>
-  </si>
-  <si>
-    <t>Skill_105_2</t>
-  </si>
-  <si>
-    <t>Skill_106_R1</t>
-  </si>
-  <si>
-    <t>Skill_107_R1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_104_R1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_104_2</t>
-  </si>
-  <si>
-    <t>Skill_108_1</t>
-  </si>
-  <si>
-    <t>Skill_106_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_107_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_108_R1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_105_R1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_105_1</t>
-  </si>
-  <si>
-    <t>TargetEffectParentInModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_10_1</t>
+  </si>
+  <si>
+    <t>Skill_20_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_21_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_20_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_21_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_2_1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -909,10 +937,10 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -978,7 +1006,7 @@
         <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1038,8 +1066,12 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -1098,8 +1130,12 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -1155,8 +1191,12 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -1182,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -1209,10 +1249,18 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
       <c r="O5"/>
       <c r="P5">
         <v>80</v>
@@ -1236,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z5">
         <v>21</v>
@@ -1266,10 +1314,18 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
       <c r="O6"/>
       <c r="P6">
         <v>81</v>
@@ -1293,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z6">
         <v>20</v>
@@ -1586,7 +1642,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1594,13 +1650,13 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1656,7 +1712,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1664,13 +1720,13 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1727,7 +1783,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1735,7 +1791,7 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1788,7 +1844,7 @@
         <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1796,7 +1852,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1849,7 +1905,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1857,7 +1913,7 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15">
         <v>3</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED98EE-0B0E-43C5-BD31-64353FE3B44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDE8D19-6AE1-48A3-9F55-78C55D9BAFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -488,6 +488,10 @@
   </si>
   <si>
     <t>Skill_2_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_noimg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -602,8 +606,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AA17" totalsRowShown="0">
-  <autoFilter ref="A1:AA17" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AA18" totalsRowShown="0">
+  <autoFilter ref="A1:AA18" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
@@ -934,13 +938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1047,74 +1051,28 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
+        <v>93</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2">
-        <v>80</v>
-      </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>180</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.3</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1131,7 +1089,7 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1140,7 +1098,7 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q3">
         <v>0.5</v>
@@ -1167,21 +1125,24 @@
         <v>0</v>
       </c>
       <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1192,7 +1153,7 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1201,13 +1162,16 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q4">
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>180</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1222,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.3</v>
-      </c>
-      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1250,20 +1214,16 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
+      <c r="M5"/>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q5">
         <v>0.5</v>
@@ -1286,19 +1246,16 @@
       <c r="Y5">
         <v>0.3</v>
       </c>
-      <c r="Z5">
-        <v>21</v>
-      </c>
       <c r="AA5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1315,20 +1272,20 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6"/>
       <c r="P6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q6">
         <v>0.5</v>
@@ -1352,59 +1309,57 @@
         <v>0.3</v>
       </c>
       <c r="Z6">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
       <c r="O7"/>
       <c r="P7">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.3</v>
@@ -1416,24 +1371,24 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="Z7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
@@ -1442,34 +1397,39 @@
         <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
       <c r="O8"/>
       <c r="P8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>5</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>360</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1478,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1486,70 +1446,61 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9"/>
       <c r="P9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>5</v>
       </c>
       <c r="R9">
-        <v>15</v>
-      </c>
-      <c r="T9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1557,35 +1508,39 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
+      <c r="E10" s="2">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1604,19 +1559,19 @@
         <v>5</v>
       </c>
       <c r="U10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y10">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -1624,48 +1579,42 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O11"/>
       <c r="P11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -1673,11 +1622,14 @@
       <c r="R11">
         <v>15</v>
       </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
       <c r="U11">
         <v>0.5</v>
       </c>
       <c r="V11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1686,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -1694,25 +1646,25 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F12">
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1720,18 +1672,20 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12"/>
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <v>103</v>
       </c>
@@ -1741,23 +1695,20 @@
       <c r="R12">
         <v>15</v>
       </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
       <c r="U12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V12">
         <v>0.5</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <v>1</v>
@@ -1765,60 +1716,70 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>76</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
       <c r="O13"/>
       <c r="P13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -1826,25 +1787,25 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1852,7 +1813,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1887,25 +1848,25 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>76</v>
       </c>
-      <c r="G15" t="s">
-        <v>81</v>
+      <c r="G15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1913,10 +1874,10 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -1948,43 +1909,48 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1000</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F16">
-        <v>79</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q16">
-        <v>3</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16">
         <v>0.3</v>
@@ -1996,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2004,21 +1970,23 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17"/>
+      <c r="F17">
+        <v>79</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -2029,33 +1997,87 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17">
+        <v>80</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0.3</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18">
         <v>81</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>10</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>60</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDE8D19-6AE1-48A3-9F55-78C55D9BAFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640AAB8F-2F8E-49D9-AB02-DAF0706ACBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -492,6 +492,17 @@
   </si>
   <si>
     <t>Textures/icon_noimg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -606,12 +617,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AA18" totalsRowShown="0">
-  <autoFilter ref="A1:AA18" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AB18" totalsRowShown="0">
+  <autoFilter ref="A1:AB18" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+  <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
-    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Des" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{87C98330-77BA-4B70-BAF3-85B925A60B6A}" name="Type"/>
     <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="0"/>
@@ -636,6 +647,7 @@
     <tableColumn id="26" xr3:uid="{5AA8F22E-889D-4354-9898-4DEAAA95B058}" name="DelayDamageTime"/>
     <tableColumn id="10" xr3:uid="{2AB7669D-69D3-42F0-ADB8-1003F2C61BE7}" name="NextSkill"/>
     <tableColumn id="16" xr3:uid="{7CE2A499-2227-4726-89B3-28EE778E914C}" name="CanEquipment"/>
+    <tableColumn id="27" xr3:uid="{2A768687-BBC0-4720-95D9-23F760CF30A2}" name="Des"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,20 +950,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="3" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
@@ -966,7 +977,7 @@
     <col min="25" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1048,8 +1059,11 @@
       <c r="AA1" t="s">
         <v>53</v>
       </c>
+      <c r="AB1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1066,8 +1080,11 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
+      <c r="AB2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1130,8 +1147,11 @@
       <c r="AA3">
         <v>1</v>
       </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1191,8 +1211,11 @@
       <c r="Z4">
         <v>1</v>
       </c>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1249,8 +1272,11 @@
       <c r="AA5">
         <v>1</v>
       </c>
+      <c r="AB5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1314,8 +1340,11 @@
       <c r="AA6">
         <v>1</v>
       </c>
+      <c r="AB6" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>21</v>
       </c>
@@ -1376,8 +1405,11 @@
       <c r="Z7">
         <v>20</v>
       </c>
+      <c r="AB7" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1443,8 +1475,11 @@
       <c r="AA8">
         <v>1</v>
       </c>
+      <c r="AB8" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1505,8 +1540,11 @@
       <c r="AA9">
         <v>1</v>
       </c>
+      <c r="AB9" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>102</v>
       </c>
@@ -1576,8 +1614,11 @@
       <c r="AA10">
         <v>1</v>
       </c>
+      <c r="AB10" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>103</v>
       </c>
@@ -1643,8 +1684,11 @@
       <c r="AA11">
         <v>1</v>
       </c>
+      <c r="AB11" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>104</v>
       </c>
@@ -1713,8 +1757,11 @@
       <c r="AA12">
         <v>1</v>
       </c>
+      <c r="AB12" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>105</v>
       </c>
@@ -1784,8 +1831,11 @@
       <c r="AA13">
         <v>1</v>
       </c>
+      <c r="AB13" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>106</v>
       </c>
@@ -1845,8 +1895,11 @@
       <c r="AA14">
         <v>1</v>
       </c>
+      <c r="AB14" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>107</v>
       </c>
@@ -1906,8 +1959,11 @@
       <c r="AA15">
         <v>1</v>
       </c>
+      <c r="AB15" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>108</v>
       </c>
@@ -1967,8 +2023,11 @@
       <c r="AA16">
         <v>1</v>
       </c>
+      <c r="AB16" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -2023,8 +2082,11 @@
       <c r="AA17">
         <v>1</v>
       </c>
+      <c r="AB17" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1001</v>
       </c>
@@ -2079,6 +2141,9 @@
       </c>
       <c r="AA18">
         <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640AAB8F-2F8E-49D9-AB02-DAF0706ACBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EE449-E77E-436F-B732-9B1445B5F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -503,6 +503,67 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_004</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_005</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_006</t>
+  </si>
+  <si>
+    <t>攻撃力Up++</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力Up+</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力Up</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身ステータスUP（被動）</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -617,8 +678,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AB18" totalsRowShown="0">
-  <autoFilter ref="A1:AB18" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AB21" totalsRowShown="0">
+  <autoFilter ref="A1:AB21" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
@@ -950,13 +1011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2029,22 +2090,19 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1000</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>79</v>
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -2055,54 +2113,23 @@
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="P17">
-        <v>80</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0.3</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0.3</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1001</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -2112,37 +2139,149 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>79</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20">
+        <v>80</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0.3</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0.3</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21">
         <v>81</v>
       </c>
-      <c r="Q18">
+      <c r="Q21">
         <v>10</v>
       </c>
-      <c r="R18">
+      <c r="R21">
         <v>4</v>
       </c>
-      <c r="S18">
+      <c r="S21">
         <v>60</v>
       </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2173,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB5D61-8D30-4CD9-B090-D9C9F63F174F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2221,6 +2360,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EE449-E77E-436F-B732-9B1445B5F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED7044-F0A4-4A8B-9E59-D3C27D90FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="3084" yWindow="1296" windowWidth="17292" windowHeight="8964" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -182,9 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メガビーム</t>
-  </si>
-  <si>
     <t>Textures/matter_2d_010</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,9 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メテオ</t>
-  </si>
-  <si>
     <t>連発</t>
     <rPh sb="0" eb="2">
       <t>レンパツ</t>
@@ -564,6 +556,17 @@
   </si>
   <si>
     <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大爆発</t>
+    <rPh sb="0" eb="3">
+      <t>ダイバクハツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1017,28 +1020,28 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.09765625" customWidth="1"/>
+    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.8984375" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1055,34 +1058,34 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1097,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U1" t="s">
         <v>8</v>
@@ -1106,30 +1109,30 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1"/>
       <c r="G2"/>
@@ -1142,15 +1145,15 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="AB2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1167,7 +1170,7 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1209,15 +1212,15 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1234,7 +1237,7 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1273,15 +1276,15 @@
         <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1298,7 +1301,7 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1334,15 +1337,15 @@
         <v>1</v>
       </c>
       <c r="AB5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1359,13 +1362,13 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>87</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>89</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1402,15 +1405,15 @@
         <v>1</v>
       </c>
       <c r="AB6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1427,13 +1430,13 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>88</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>90</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1467,10 +1470,10 @@
         <v>20</v>
       </c>
       <c r="AB7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1498,7 +1501,7 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1537,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1568,7 +1571,7 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1602,18 +1605,18 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1625,7 +1628,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1633,13 +1636,13 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1676,30 +1679,30 @@
         <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1709,7 +1712,7 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1746,30 +1749,30 @@
         <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1777,13 +1780,13 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1819,18 +1822,18 @@
         <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1842,7 +1845,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1850,13 +1853,13 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1893,30 +1896,30 @@
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1924,7 +1927,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1957,30 +1960,30 @@
         <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1988,7 +1991,7 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -2021,30 +2024,30 @@
         <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2052,7 +2055,7 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -2085,24 +2088,24 @@
         <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -2114,21 +2117,21 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -2140,21 +2143,21 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -2166,7 +2169,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -2222,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="AB20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2306,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,9 +2321,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2336,36 +2339,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED7044-F0A4-4A8B-9E59-D3C27D90FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B1470B-36C2-47EE-B52D-1038E487D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="1296" windowWidth="17292" windowHeight="8964" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1513,7 +1513,7 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -1581,7 +1581,7 @@
         <v>101</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R9">
         <v>10</v>
@@ -1652,7 +1652,7 @@
         <v>102</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R10">
         <v>15</v>
@@ -1722,7 +1722,7 @@
         <v>102</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>15</v>
@@ -1798,7 +1798,7 @@
         <v>103</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         <v>103</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -1939,7 +1939,7 @@
         <v>104</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -2003,7 +2003,7 @@
         <v>104</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U15">
         <v>2</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,18 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B1470B-36C2-47EE-B52D-1038E487D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9DBC6D-29BA-4E5B-9340-2CA0A816C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
     <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="範囲">[1]作業用一覧!$A$2:$C$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -172,15 +178,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/matter_2d_009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ため斬り</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/matter_2d_010</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -239,15 +237,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Textures/matter_2d_011</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_012</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_013</t>
-  </si>
-  <si>
     <t>魔法範囲攻撃（目標の位置で爆発）</t>
     <rPh sb="0" eb="2">
       <t>マホウ</t>
@@ -286,21 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/matter_2d_003</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_004</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_005</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_006</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_007</t>
-  </si>
-  <si>
     <t>NextSkill</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,16 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/block_2d_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/block_2d_002</t>
-  </si>
-  <si>
-    <t>Textures/block_2d_003</t>
-  </si>
-  <si>
     <t>CanEquipment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -498,15 +462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/block_2d_004</t>
-  </si>
-  <si>
-    <t>Textures/block_2d_005</t>
-  </si>
-  <si>
-    <t>Textures/block_2d_006</t>
-  </si>
-  <si>
     <t>攻撃力Up++</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -568,6 +523,58 @@
       <t>ダイバクハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_002</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_003</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_004</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_005</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_006</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_007</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_008</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_009</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_010</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_011</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_012</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_013</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_014</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_015</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_016</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_017</t>
   </si>
 </sst>
 </file>
@@ -641,7 +648,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -680,16 +694,237 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="リスト"/>
+      <sheetName val="作業用一覧"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>block</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>block_2d_</v>
+          </cell>
+          <cell r="C2">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>object</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>object_2d_</v>
+          </cell>
+          <cell r="C3">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>matter</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>matter_2d_</v>
+          </cell>
+          <cell r="C4">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>button</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>button_2d_</v>
+          </cell>
+          <cell r="C5">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>category</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>info_category_</v>
+          </cell>
+          <cell r="C6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>shop</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>shop_2d_</v>
+          </cell>
+          <cell r="C7">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>effect</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>effect_2d_</v>
+          </cell>
+          <cell r="C8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>icon</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>icon_2d_</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>texture</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>texture_2d_</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>mission</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>mission_2d_</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>menu</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>menu_2d_</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>infomation</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>infomation_2d_</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>character</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>character_2d_</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>itemcoin</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>itemcoin_2d_</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>EnemyObject</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>EnemyObject_2d_</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>SwordObject</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>SwordObject_2d_</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>BowObject</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>BowObject_2d_</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>WandObject</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>WandObject_2d_</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>brave</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>brave_2d_</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>skill</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>skill_2d_</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AB21" totalsRowShown="0">
   <autoFilter ref="A1:AB21" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
-    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Name" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Name" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{87C98330-77BA-4B70-BAF3-85B925A60B6A}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{DE7C63D8-EDB3-412D-85A4-D4C610C3EBD1}" name="ReadyEffect"/>
     <tableColumn id="22" xr3:uid="{6D734518-970C-42AD-BA43-FA76C581EA2B}" name="ReadyEffectTime"/>
     <tableColumn id="19" xr3:uid="{B9A8AA30-B8E8-4743-ADA5-AF6F040FA18E}" name="ReadyTargetEffect"/>
@@ -1020,28 +1255,28 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.09765625" customWidth="1"/>
-    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.8984375" customWidth="1"/>
-    <col min="21" max="21" width="13.09765625" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" customWidth="1"/>
+    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1058,34 +1293,34 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1100,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U1" t="s">
         <v>8</v>
@@ -1109,30 +1344,30 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AA1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AB1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1"/>
       <c r="G2"/>
@@ -1145,15 +1380,15 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="AB2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1170,7 +1405,7 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1212,15 +1447,15 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1237,7 +1472,7 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1276,15 +1511,15 @@
         <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1301,7 +1536,7 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1337,15 +1572,15 @@
         <v>1</v>
       </c>
       <c r="AB5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1362,13 +1597,13 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1405,15 +1640,15 @@
         <v>1</v>
       </c>
       <c r="AB6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1430,13 +1665,13 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1470,15 +1705,15 @@
         <v>20</v>
       </c>
       <c r="AB7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1493,7 +1728,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1501,7 +1736,7 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1540,18 +1775,18 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1563,7 +1798,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1571,7 +1806,7 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1605,18 +1840,18 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1628,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1636,13 +1871,13 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1679,30 +1914,30 @@
         <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1712,7 +1947,7 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1749,30 +1984,30 @@
         <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1780,13 +2015,13 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1822,18 +2057,18 @@
         <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1845,7 +2080,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1853,13 +2088,13 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1896,30 +2131,30 @@
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1927,7 +2162,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1960,30 +2195,30 @@
         <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1991,7 +2226,7 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -2024,30 +2259,30 @@
         <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2055,7 +2290,7 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -2088,24 +2323,24 @@
         <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -2117,21 +2352,21 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -2143,21 +2378,21 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -2169,7 +2404,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -2225,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="AB20" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -2285,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +2541,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2321,9 +2556,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2331,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2339,36 +2574,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9DBC6D-29BA-4E5B-9340-2CA0A816C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F6A841-8FD4-409E-857B-32E06C633BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/icon_noimg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -575,6 +571,10 @@
   </si>
   <si>
     <t>Textures/skill_2d_017</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_018</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -648,14 +648,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -921,10 +914,10 @@
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
-    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Name" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{87C98330-77BA-4B70-BAF3-85B925A60B6A}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{DE7C63D8-EDB3-412D-85A4-D4C610C3EBD1}" name="ReadyEffect"/>
     <tableColumn id="22" xr3:uid="{6D734518-970C-42AD-BA43-FA76C581EA2B}" name="ReadyEffectTime"/>
     <tableColumn id="19" xr3:uid="{B9A8AA30-B8E8-4743-ADA5-AF6F040FA18E}" name="ReadyTargetEffect"/>
@@ -1255,7 +1248,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1284,7 +1277,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1367,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1"/>
       <c r="G2"/>
@@ -1380,7 +1373,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="AB2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
@@ -1388,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1447,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
@@ -1455,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1511,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
@@ -1519,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1572,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="AB5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
@@ -1580,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1640,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="AB6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
@@ -1648,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1705,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="AB7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
@@ -1713,7 +1706,7 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1775,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
@@ -1783,7 +1776,7 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1840,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
@@ -1848,10 +1841,10 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1914,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
@@ -1922,10 +1915,10 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1984,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
@@ -1992,7 +1985,7 @@
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2057,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
@@ -2065,7 +2058,7 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -2131,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
@@ -2139,7 +2132,7 @@
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -2195,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
@@ -2203,7 +2196,7 @@
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -2259,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
@@ -2267,7 +2260,7 @@
         <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -2323,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
@@ -2331,16 +2324,16 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -2357,16 +2350,16 @@
         <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -2383,16 +2376,16 @@
         <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -2460,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="AB20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.4">
@@ -2520,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F6A841-8FD4-409E-857B-32E06C633BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6B9E0D-7DCC-471A-AD2C-7278EEDF6B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -575,6 +575,39 @@
   <si>
     <t>Textures/skill_2d_018</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>正面の敵に力強く攻撃する。</t>
+  </si>
+  <si>
+    <t>魔法で、範囲内の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>矢を連射して敵を攻撃する</t>
+  </si>
+  <si>
+    <t>矢の連射で、範囲内の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>HPを大幅に回復する</t>
+  </si>
+  <si>
+    <t>HPを回復する</t>
+  </si>
+  <si>
+    <t>HPを少量回復する</t>
+  </si>
+  <si>
+    <t>攻撃力が大幅に上昇する</t>
+  </si>
+  <si>
+    <t>攻撃力が上昇する</t>
+  </si>
+  <si>
+    <t>攻撃力が少量上昇する。</t>
   </si>
 </sst>
 </file>
@@ -1245,31 +1278,31 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="AB8" sqref="AB8:AB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.09765625" customWidth="1"/>
+    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.8984375" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1376,7 +1409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1443,7 +1476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1507,7 +1540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1568,7 +1601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1636,7 +1669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>21</v>
       </c>
@@ -1701,7 +1734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1768,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1833,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>102</v>
       </c>
@@ -1907,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>103</v>
       </c>
@@ -1977,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>104</v>
       </c>
@@ -2050,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>105</v>
       </c>
@@ -2124,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>106</v>
       </c>
@@ -2188,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>107</v>
       </c>
@@ -2252,10 +2285,10 @@
         <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>108</v>
       </c>
@@ -2316,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>109</v>
       </c>
@@ -2344,8 +2377,11 @@
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
+      <c r="AB17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>110</v>
       </c>
@@ -2370,8 +2406,11 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
+      <c r="AB18" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>111</v>
       </c>
@@ -2396,8 +2435,11 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
+      <c r="AB19" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -2456,7 +2498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -2534,7 +2576,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2549,9 +2591,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2559,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2567,7 +2609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2575,7 +2617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2583,7 +2625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2591,7 +2633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6B9E0D-7DCC-471A-AD2C-7278EEDF6B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777E6DA-68B4-42FC-BF0E-D51105D0A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,71 +543,75 @@
     <t>Textures/skill_2d_007</t>
   </si>
   <si>
+    <t>Textures/skill_2d_010</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_011</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_012</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_013</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_014</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_016</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>正面の敵に力強く攻撃する。</t>
+  </si>
+  <si>
+    <t>魔法で、範囲内の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>矢を連射して敵を攻撃する</t>
+  </si>
+  <si>
+    <t>矢の連射で、範囲内の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>HPを大幅に回復する</t>
+  </si>
+  <si>
+    <t>HPを回復する</t>
+  </si>
+  <si>
+    <t>HPを少量回復する</t>
+  </si>
+  <si>
+    <t>攻撃力が大幅に上昇する</t>
+  </si>
+  <si>
+    <t>攻撃力が上昇する</t>
+  </si>
+  <si>
+    <t>攻撃力が少量上昇する。</t>
+  </si>
+  <si>
     <t>Textures/skill_2d_008</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Textures/skill_2d_009</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_010</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_011</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_012</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_013</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_017</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Textures/skill_2d_015</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_016</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_017</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_018</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>周囲の敵すべてに攻撃する。</t>
-  </si>
-  <si>
-    <t>正面の敵に力強く攻撃する。</t>
-  </si>
-  <si>
-    <t>魔法で、範囲内の敵すべてに攻撃する。</t>
-  </si>
-  <si>
-    <t>矢を連射して敵を攻撃する</t>
-  </si>
-  <si>
-    <t>矢の連射で、範囲内の敵すべてに攻撃する。</t>
-  </si>
-  <si>
-    <t>HPを大幅に回復する</t>
-  </si>
-  <si>
-    <t>HPを回復する</t>
-  </si>
-  <si>
-    <t>HPを少量回復する</t>
-  </si>
-  <si>
-    <t>攻撃力が大幅に上昇する</t>
-  </si>
-  <si>
-    <t>攻撃力が上昇する</t>
-  </si>
-  <si>
-    <t>攻撃力が少量上昇する。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1278,31 +1282,31 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB8" sqref="AB8:AB19"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.09765625" customWidth="1"/>
-    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.8984375" customWidth="1"/>
-    <col min="21" max="21" width="13.09765625" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" customWidth="1"/>
+    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,12 +1392,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1"/>
       <c r="G2"/>
@@ -1409,7 +1413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>21</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1801,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1866,15 +1870,15 @@
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
@@ -1940,15 +1944,15 @@
         <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -2010,15 +2014,15 @@
         <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2083,15 +2087,15 @@
         <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -2157,15 +2161,15 @@
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -2221,15 +2225,15 @@
         <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -2285,15 +2289,15 @@
         <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -2349,15 +2353,15 @@
         <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>80</v>
@@ -2378,15 +2382,15 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="AB17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>81</v>
@@ -2407,15 +2411,15 @@
       <c r="N18"/>
       <c r="O18"/>
       <c r="AB18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>82</v>
@@ -2436,10 +2440,10 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="AB19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -2576,7 +2580,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2591,9 +2595,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2617,7 +2621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777E6DA-68B4-42FC-BF0E-D51105D0A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E2B1F-FAA6-44AE-9610-F042D90F3650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -561,56 +561,76 @@
     <t>Textures/skill_2d_016</t>
   </si>
   <si>
+    <t>周囲の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>正面の敵に力強く攻撃する。</t>
+  </si>
+  <si>
+    <t>魔法で、範囲内の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>矢を連射して敵を攻撃する</t>
+  </si>
+  <si>
+    <t>矢の連射で、範囲内の敵すべてに攻撃する。</t>
+  </si>
+  <si>
+    <t>HPを大幅に回復する</t>
+  </si>
+  <si>
+    <t>HPを回復する</t>
+  </si>
+  <si>
+    <t>HPを少量回復する</t>
+  </si>
+  <si>
+    <t>攻撃力が大幅に上昇する</t>
+  </si>
+  <si>
+    <t>攻撃力が上昇する</t>
+  </si>
+  <si>
+    <t>攻撃力が少量上昇する。</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Textures/skill_2d_018</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>周囲の敵すべてに攻撃する。</t>
-  </si>
-  <si>
-    <t>正面の敵に力強く攻撃する。</t>
-  </si>
-  <si>
-    <t>魔法で、範囲内の敵すべてに攻撃する。</t>
-  </si>
-  <si>
-    <t>矢を連射して敵を攻撃する</t>
-  </si>
-  <si>
-    <t>矢の連射で、範囲内の敵すべてに攻撃する。</t>
-  </si>
-  <si>
-    <t>HPを大幅に回復する</t>
-  </si>
-  <si>
-    <t>HPを回復する</t>
-  </si>
-  <si>
-    <t>HPを少量回復する</t>
-  </si>
-  <si>
-    <t>攻撃力が大幅に上昇する</t>
-  </si>
-  <si>
-    <t>攻撃力が上昇する</t>
-  </si>
-  <si>
-    <t>攻撃力が少量上昇する。</t>
-  </si>
-  <si>
-    <t>Textures/skill_2d_008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/skill_2d_009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/skill_2d_017</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/skill_2d_015</t>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -946,8 +966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AB21" totalsRowShown="0">
-  <autoFilter ref="A1:AB21" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0">
+  <autoFilter ref="A1:AB22" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
@@ -1279,19 +1299,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
@@ -1394,10 +1415,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1"/>
       <c r="G2"/>
@@ -1409,83 +1430,34 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="AB2" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3"/>
+        <v>117</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3">
-        <v>80</v>
-      </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <v>180</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.3</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
       <c r="AB3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1502,7 +1474,7 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1511,7 +1483,7 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q4">
         <v>0.5</v>
@@ -1538,6 +1510,9 @@
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4" t="s">
@@ -1546,16 +1521,16 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1566,7 +1541,7 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1575,13 +1550,16 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q5">
         <v>0.5</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>180</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1596,9 +1574,9 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.3</v>
-      </c>
-      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
       <c r="AB5" t="s">
@@ -1607,13 +1585,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1627,20 +1605,16 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
+      <c r="M6"/>
+      <c r="N6"/>
       <c r="O6"/>
       <c r="P6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q6">
         <v>0.5</v>
@@ -1663,9 +1637,6 @@
       <c r="Y6">
         <v>0.3</v>
       </c>
-      <c r="Z6">
-        <v>21</v>
-      </c>
       <c r="AA6">
         <v>1</v>
       </c>
@@ -1675,10 +1646,10 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1695,20 +1666,20 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7"/>
       <c r="P7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q7">
         <v>0.5</v>
@@ -1732,7 +1703,10 @@
         <v>0.3</v>
       </c>
       <c r="Z7">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
       </c>
       <c r="AB7" t="s">
         <v>79</v>
@@ -1740,54 +1714,49 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8"/>
-      <c r="N8"/>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
       <c r="O8"/>
       <c r="P8">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>5</v>
-      </c>
-      <c r="S8">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.3</v>
@@ -1799,63 +1768,68 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="Z8">
+        <v>20</v>
       </c>
       <c r="AB8" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F9">
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>20</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>360</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1864,98 +1838,89 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10"/>
       <c r="P10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>20</v>
       </c>
       <c r="R10">
-        <v>15</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1967,17 +1932,21 @@
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1996,71 +1965,65 @@
         <v>5</v>
       </c>
       <c r="U11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y11">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="F12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
+      <c r="K12"/>
+      <c r="L12"/>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O12"/>
       <c r="P12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>20</v>
@@ -2068,11 +2031,14 @@
       <c r="R12">
         <v>15</v>
       </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
       <c r="U12">
         <v>0.5</v>
       </c>
       <c r="V12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -2081,36 +2047,36 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F13">
         <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2118,18 +2084,20 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="M13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13"/>
+      <c r="O13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <v>103</v>
       </c>
@@ -2139,116 +2107,123 @@
       <c r="R13">
         <v>15</v>
       </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="F14">
-        <v>76</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L14">
         <v>2</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
       <c r="O14"/>
       <c r="P14">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q14">
         <v>20</v>
       </c>
+      <c r="R14">
+        <v>15</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2256,7 +2231,7 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -2268,7 +2243,7 @@
         <v>104</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -2289,30 +2264,30 @@
         <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>76</v>
       </c>
-      <c r="G16" t="s">
-        <v>66</v>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2320,10 +2295,10 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -2332,7 +2307,7 @@
         <v>104</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -2353,53 +2328,88 @@
         <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
+      <c r="P17">
+        <v>104</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
       <c r="AB17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -2411,24 +2421,24 @@
       <c r="N18"/>
       <c r="O18"/>
       <c r="AB18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -2440,27 +2450,24 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="AB19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1000</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>79</v>
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -2471,54 +2478,29 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20">
-        <v>80</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0.3</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0.3</v>
-      </c>
-      <c r="AA20">
-        <v>1</v>
-      </c>
       <c r="AB20" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21"/>
+      <c r="F21">
+        <v>79</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -2529,36 +2511,93 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21">
+        <v>80</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0.3</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0.3</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22">
         <v>81</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <v>10</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <v>4</v>
       </c>
-      <c r="S21">
+      <c r="S22">
         <v>60</v>
       </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E2B1F-FAA6-44AE-9610-F042D90F3650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822507C7-7161-498F-AD05-241AB274E2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1302,32 +1302,32 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.09765625" customWidth="1"/>
+    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.8984375" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0.3</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>102</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R11">
         <v>15</v>
@@ -1986,7 +1986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>102</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R12">
         <v>15</v>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>103</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -2114,7 +2114,7 @@
         <v>0.5</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>103</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R14">
         <v>15</v>
@@ -2188,7 +2188,7 @@
         <v>0.5</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X14">
         <v>0.4</v>
@@ -2203,7 +2203,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>104</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -2267,7 +2267,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>104</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -2331,7 +2331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2619,7 +2619,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2634,9 +2634,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822507C7-7161-498F-AD05-241AB274E2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38342D8-3970-466C-BCC7-200E0CA3E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -631,6 +631,10 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1302,10 +1306,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2495,8 +2499,8 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="2">
-        <v>1</v>
+      <c r="E21" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F21">
         <v>79</v>
@@ -2554,8 +2558,8 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
+      <c r="E22" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38342D8-3970-466C-BCC7-200E0CA3E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343885D9-090F-44A3-84C3-69B1DE0E8CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1924,7 +1924,7 @@
         <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1998,7 +1998,7 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>3</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343885D9-090F-44A3-84C3-69B1DE0E8CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3904EE-0A91-4662-856D-EB3ECFE7B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1306,32 +1306,32 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.09765625" customWidth="1"/>
-    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.8984375" customWidth="1"/>
-    <col min="21" max="21" width="13.09765625" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" customWidth="1"/>
+    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>101</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>102</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="V15">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="V17">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2623,7 +2623,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,9 +2638,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3904EE-0A91-4662-856D-EB3ECFE7B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AC12A-291D-4F43-85D6-D7F09D1CF54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1309,29 +1309,29 @@
       <pane xSplit="5" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.09765625" customWidth="1"/>
+    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.8984375" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -1851,7 +1851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>101</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R10">
         <v>10</v>
@@ -1916,7 +1916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>102</v>
       </c>
       <c r="Q11">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>15</v>
@@ -1990,7 +1990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>102</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R12">
         <v>15</v>
@@ -2060,7 +2060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>103</v>
       </c>
       <c r="Q13">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>103</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R14">
         <v>15</v>
@@ -2207,7 +2207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>104</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -2271,7 +2271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>104</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -2335,7 +2335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2623,7 +2623,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,9 +2638,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AC12A-291D-4F43-85D6-D7F09D1CF54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70930C47-AAF4-489C-8C94-AD5519278323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1306,10 +1306,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="X11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y11">
         <v>1.8</v>
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y12">
         <v>0.7</v>
@@ -2121,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y13">
         <v>2</v>
@@ -2195,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="X14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Y14">
         <v>0.5</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70930C47-AAF4-489C-8C94-AD5519278323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C83CCA-02A6-4DCA-AE6F-4C6DCF5A4BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1306,10 +1306,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1821,7 +1821,7 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -1889,7 +1889,7 @@
         <v>101</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R10">
         <v>10</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C83CCA-02A6-4DCA-AE6F-4C6DCF5A4BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC2A2B5-DCEE-4687-8347-93F82244177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1821,7 +1821,7 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>5</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC2A2B5-DCEE-4687-8347-93F82244177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1BC9E-B633-468B-A926-8523ADDF6818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1306,32 +1306,32 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.09765625" customWidth="1"/>
-    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.8984375" customWidth="1"/>
-    <col min="21" max="21" width="13.09765625" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" customWidth="1"/>
+    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>101</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>102</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2623,7 +2623,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,9 +2638,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1BC9E-B633-468B-A926-8523ADDF6818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EBD307-A48C-482D-B047-839ECD5DB763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1306,10 +1306,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W9">
         <v>6</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EBD307-A48C-482D-B047-839ECD5DB763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5428434-52BB-40C6-BDAA-1E4831419D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1306,32 +1306,32 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.09765625" customWidth="1"/>
+    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.8984375" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>76</v>
@@ -2271,7 +2271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>76</v>
@@ -2399,7 +2399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2623,7 +2623,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,9 +2638,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5428434-52BB-40C6-BDAA-1E4831419D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32855465-CCB4-4C53-8AB4-4152C7C7548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1306,10 +1306,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2115,10 +2115,10 @@
         <v>0.5</v>
       </c>
       <c r="V13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X13">
         <v>0.1</v>
@@ -2189,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X14">
         <v>0.2</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32855465-CCB4-4C53-8AB4-4152C7C7548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E7E23C-1EBD-472A-A7BA-E2E9DB2395F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1306,10 +1306,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1836,7 +1836,7 @@
         <v>0.4</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X9">
         <v>0.1</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X10">
         <v>0.1</v>
@@ -1960,7 +1960,7 @@
         <v>102</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R11">
         <v>15</v>
@@ -1975,7 +1975,7 @@
         <v>2.5</v>
       </c>
       <c r="W11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <v>0.1</v>
@@ -2030,7 +2030,7 @@
         <v>102</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R12">
         <v>15</v>
@@ -2106,7 +2106,7 @@
         <v>103</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -2177,7 +2177,7 @@
         <v>103</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         <v>104</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -2311,7 +2311,7 @@
         <v>104</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>104</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U17">
         <v>2</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E7E23C-1EBD-472A-A7BA-E2E9DB2395F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D9385-913F-47AD-B2D9-3686A2A5BA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1306,10 +1306,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="W21">
         <v>1</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D9385-913F-47AD-B2D9-3686A2A5BA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3994058C-01F4-49D8-BF74-E3E8798D0112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1309,29 +1309,29 @@
       <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5:V8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.09765625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.09765625" customWidth="1"/>
-    <col min="18" max="18" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.8984375" customWidth="1"/>
-    <col min="21" max="21" width="13.09765625" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" customWidth="1"/>
+    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>101</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>102</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2623,7 +2623,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,9 +2638,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3994058C-01F4-49D8-BF74-E3E8798D0112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FBB13-16E8-445D-A6F9-BB119651D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W8">
         <v>1</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FBB13-16E8-445D-A6F9-BB119651D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036E027-A7CD-4790-8FBF-A68E6397A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -139,9 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/matter_2d_008</t>
-  </si>
-  <si>
     <t>剣の普通攻撃</t>
     <rPh sb="0" eb="1">
       <t>ケン</t>
@@ -271,10 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NextSkill</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -344,9 +339,6 @@
     <t>Skill_100_R1</t>
   </si>
   <si>
-    <t>Skill_100_1</t>
-  </si>
-  <si>
     <t>Skill_101_R1</t>
   </si>
   <si>
@@ -371,12 +363,6 @@
   </si>
   <si>
     <t>Skill_103_2</t>
-  </si>
-  <si>
-    <t>Skill_105_2</t>
-  </si>
-  <si>
-    <t>Skill_106_R1</t>
   </si>
   <si>
     <t>Skill_107_R1</t>
@@ -622,10 +608,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5,6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,13 +618,227 @@
   <si>
     <t>2000</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率で即死ぬ</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即死ぬ呪い弓</t>
+    <rPh sb="0" eb="2">
+      <t>ソクシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即死ぬ呪い剣</t>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即死ぬ呪い杖</t>
+    <rPh sb="5" eb="6">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_106_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_113_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_112_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_114_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_113_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_114_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷剣</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷弓</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷杖</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_115_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_116_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_117_R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_116_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_117_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_115_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OneceImpact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_112_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動スピードアップ</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動Up</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_118_1</t>
+  </si>
+  <si>
+    <t>乱れ打ち</t>
+  </si>
+  <si>
+    <t>パワースラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボムファイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_121_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_105_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_100_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_119_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_120_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_500_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +868,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -695,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,11 +914,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -970,14 +1188,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0">
-  <autoFilter ref="A1:AB22" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC34" totalsRowShown="0">
+  <autoFilter ref="A1:AC34" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
-    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Name" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{B466F831-379C-4710-9564-44B7609EE5C3}" name="Name" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{87C98330-77BA-4B70-BAF3-85B925A60B6A}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1F00AEC6-CAF5-48C6-A7D3-BAB78A33CE20}" name="Impact" dataDxfId="2"/>
+    <tableColumn id="31" xr3:uid="{2290613F-D6B1-4F30-B178-2085FA2B7D0E}" name="OneceImpact" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{186F0BBB-E296-40C7-902A-FAA28A84C3B2}" name="ReadyAnimation" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{DE7C63D8-EDB3-412D-85A4-D4C610C3EBD1}" name="ReadyEffect"/>
     <tableColumn id="22" xr3:uid="{6D734518-970C-42AD-BA43-FA76C581EA2B}" name="ReadyEffectTime"/>
@@ -1303,13 +1522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1319,19 +1538,20 @@
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="15" width="10.125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="16" width="10.125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="13.125" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1559,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1347,85 +1567,87 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>38</v>
-      </c>
       <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -1434,16 +1656,16 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -1452,19 +1674,20 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="P3"/>
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1472,66 +1695,65 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4">
+      <c r="P4"/>
+      <c r="Q4">
         <v>80</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>180</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0.3</v>
       </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1539,60 +1761,59 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5">
+      <c r="P5"/>
+      <c r="Q5">
         <v>81</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.5</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>180</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>0.3</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1603,60 +1824,59 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6"/>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6">
+      <c r="P6"/>
+      <c r="Q6">
         <v>82</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.5</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>10</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>0.4</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>0.3</v>
       </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1664,67 +1884,66 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7">
+        <v>80</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.3</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0.3</v>
+      </c>
+      <c r="AA7">
+        <v>21</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
         <v>74</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7"/>
-      <c r="P7">
-        <v>80</v>
-      </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
-        <v>10</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0.3</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0.3</v>
-      </c>
-      <c r="Z7">
-        <v>21</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1732,690 +1951,691 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8"/>
-      <c r="P8">
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8">
         <v>81</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>10</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0.3</v>
       </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>0.3</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>20</v>
       </c>
-      <c r="AB8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>79</v>
       </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9"/>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9"/>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9">
+      <c r="P9"/>
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>10</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>5</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>360</v>
       </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
       <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>0.4</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.1</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10">
+        <v>114</v>
+      </c>
+      <c r="G10">
         <v>79</v>
       </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10"/>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10"/>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10">
+      <c r="K10"/>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="O10"/>
-      <c r="P10">
+      <c r="P10"/>
+      <c r="Q10">
         <v>101</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
       </c>
       <c r="R10">
         <v>10</v>
       </c>
-      <c r="U10">
-        <v>1</v>
+      <c r="S10">
+        <v>10</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>12</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.1</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="G11">
         <v>78</v>
       </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11"/>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11"/>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11">
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11">
         <v>3</v>
       </c>
-      <c r="O11"/>
-      <c r="P11">
+      <c r="P11"/>
+      <c r="Q11">
         <v>102</v>
-      </c>
-      <c r="Q11">
-        <v>15</v>
       </c>
       <c r="R11">
         <v>15</v>
       </c>
-      <c r="T11">
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
       <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>2.5</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>10</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.1</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1.8</v>
       </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12">
+        <v>141</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12"/>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12">
+      <c r="M12"/>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12">
         <v>3</v>
       </c>
-      <c r="O12"/>
-      <c r="P12">
+      <c r="P12"/>
+      <c r="Q12">
         <v>102</v>
-      </c>
-      <c r="Q12">
-        <v>15</v>
       </c>
       <c r="R12">
         <v>15</v>
       </c>
-      <c r="T12">
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.5</v>
       </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
       <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>6</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>0.1</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0.7</v>
       </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13">
+        <v>115</v>
+      </c>
+      <c r="G13">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13"/>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13"/>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13">
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13">
         <v>2</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
       <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
         <v>103</v>
-      </c>
-      <c r="Q13">
-        <v>15</v>
       </c>
       <c r="R13">
         <v>15</v>
       </c>
-      <c r="U13">
+      <c r="S13">
+        <v>15</v>
+      </c>
+      <c r="V13">
         <v>0.5</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>0.3</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>12</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>0.1</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14">
+        <v>116</v>
+      </c>
+      <c r="G14">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14"/>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14"/>
-      <c r="K14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14">
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="M14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14">
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="O14"/>
-      <c r="P14">
+      <c r="P14"/>
+      <c r="Q14">
         <v>103</v>
-      </c>
-      <c r="Q14">
-        <v>15</v>
       </c>
       <c r="R14">
         <v>15</v>
       </c>
-      <c r="T14">
+      <c r="S14">
+        <v>15</v>
+      </c>
+      <c r="U14">
         <v>5</v>
       </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
       <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>0.3</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>12</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>0.2</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0.5</v>
       </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
+        <v>34</v>
+      </c>
+      <c r="G15">
         <v>76</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
         <v>59</v>
       </c>
-      <c r="H15">
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15">
+      <c r="P15"/>
+      <c r="Q15">
         <v>104</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>15</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
       <c r="W15">
         <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
+        <v>33</v>
+      </c>
+      <c r="G16">
         <v>76</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
         <v>60</v>
       </c>
-      <c r="H16">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16">
+      <c r="P16"/>
+      <c r="Q16">
         <v>104</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2</v>
       </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17">
         <v>76</v>
       </c>
-      <c r="G17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17">
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="P17">
+      <c r="P17"/>
+      <c r="Q17">
         <v>104</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>7</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>2</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18"/>
+        <v>80</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -2424,27 +2644,27 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="AB18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="P18"/>
+      <c r="AC18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19"/>
+        <v>79</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -2453,27 +2673,27 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="AB19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="P19"/>
+      <c r="AC19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20"/>
+        <v>81</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -2482,127 +2702,921 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="AB20" t="s">
+      <c r="P20"/>
+      <c r="AC20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>1000</v>
-      </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
+        <v>111</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21">
+        <v>144</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21">
         <v>79</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21">
-        <v>80</v>
-      </c>
+      <c r="L21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="P21"/>
       <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>360</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="R21">
+      <c r="Y21">
+        <v>0.2</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0.6</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0.3</v>
-      </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>1001</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
         <v>123</v>
       </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22">
+      <c r="N22" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22">
+        <v>103</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23">
+        <v>102</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>30</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>360</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0.5</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>0.2</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25">
+        <v>103</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>30</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>0.2</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26">
+        <v>102</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>30</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>0.2</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27">
+        <v>78</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>151</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27">
+        <v>102</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>30</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>15</v>
+      </c>
+      <c r="Y27">
+        <v>0.2</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>158</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>360</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0.4</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>0.1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29">
+        <v>103</v>
+      </c>
+      <c r="R29">
+        <v>15</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0.3</v>
+      </c>
+      <c r="X29">
+        <v>12</v>
+      </c>
+      <c r="Y29">
+        <v>0.2</v>
+      </c>
+      <c r="Z29">
+        <v>0.5</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>155</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30">
+        <v>102</v>
+      </c>
+      <c r="R30">
+        <v>15</v>
+      </c>
+      <c r="S30">
+        <v>15</v>
+      </c>
+      <c r="U30">
+        <v>5</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0.5</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>0.2</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>500</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31">
+        <v>0.5</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>501</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>101</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33">
+        <v>79</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33">
+        <v>80</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.6</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0.3</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34">
         <v>81</v>
       </c>
-      <c r="Q22">
+      <c r="R34">
         <v>10</v>
       </c>
-      <c r="R22">
+      <c r="S34">
         <v>4</v>
       </c>
-      <c r="S22">
+      <c r="T34">
         <v>60</v>
       </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>79</v>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +3634,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2632,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB5D61-8D30-4CD9-B090-D9C9F63F174F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2661,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2669,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2677,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -2685,7 +3699,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036E027-A7CD-4790-8FBF-A68E6397A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47216F-E6E5-4A7D-9CD5-1D90E38B1148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="4110" yWindow="2790" windowWidth="21690" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1525,10 +1525,10 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3162,7 +3162,7 @@
         <v>151</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -3183,7 +3183,7 @@
         <v>0.5</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X27">
         <v>15</v>
@@ -3192,7 +3192,7 @@
         <v>0.2</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB27">
         <v>1</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47216F-E6E5-4A7D-9CD5-1D90E38B1148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9005958-6EAE-438D-BC0E-5761BFAB5D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2790" windowWidth="21690" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -541,9 +541,6 @@
     <t>Textures/skill_2d_013</t>
   </si>
   <si>
-    <t>Textures/skill_2d_014</t>
-  </si>
-  <si>
     <t>Textures/skill_2d_016</t>
   </si>
   <si>
@@ -832,6 +829,38 @@
   </si>
   <si>
     <t>Skill_500_1</t>
+  </si>
+  <si>
+    <t>Textures/skill_2d_020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_027</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1525,10 +1554,10 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1568,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
         <v>30</v>
@@ -1645,7 +1674,7 @@
         <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1"/>
       <c r="H2"/>
@@ -1663,7 +1692,7 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1"/>
       <c r="H3"/>
@@ -2027,7 +2056,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -2066,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.4">
@@ -2083,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10">
         <v>79</v>
@@ -2131,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.4">
@@ -2139,7 +2168,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -2205,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.4">
@@ -2213,7 +2242,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
@@ -2222,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12">
         <v>78</v>
@@ -2278,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.4">
@@ -2295,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -2351,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.4">
@@ -2368,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14">
         <v>77</v>
@@ -2388,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2425,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.4">
@@ -2448,7 +2477,7 @@
         <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -2489,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.4">
@@ -2553,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.4">
@@ -2561,7 +2590,7 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -2617,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.4">
@@ -2625,7 +2654,7 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>75</v>
@@ -2646,7 +2675,7 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="AC18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.4">
@@ -2654,7 +2683,7 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>76</v>
@@ -2675,7 +2704,7 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="AC19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.4">
@@ -2683,7 +2712,7 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -2704,7 +2733,7 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="AC20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.4">
@@ -2712,25 +2741,25 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21">
         <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2738,7 +2767,7 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2775,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.4">
@@ -2783,25 +2812,25 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22">
         <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2811,7 +2840,7 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -2845,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.4">
@@ -2853,25 +2882,25 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G23">
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2881,7 +2910,7 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -2915,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.4">
@@ -2923,25 +2952,25 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2949,7 +2978,7 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -2986,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.4">
@@ -2994,25 +3023,25 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25">
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -3022,7 +3051,7 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3059,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.4">
@@ -3067,25 +3096,25 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26">
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3095,7 +3124,7 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26">
         <v>3</v>
@@ -3132,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.4">
@@ -3140,16 +3169,16 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27">
         <v>78</v>
@@ -3159,7 +3188,7 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -3198,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.4">
@@ -3206,10 +3235,10 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3229,7 +3258,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3268,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.4">
@@ -3276,16 +3305,16 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29">
         <v>77</v>
@@ -3305,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3342,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.4">
@@ -3350,10 +3379,10 @@
         <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3379,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -3416,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.4">
@@ -3424,10 +3453,10 @@
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -3437,7 +3466,7 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M31">
         <v>0.5</v>
@@ -3458,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.4">
@@ -3466,16 +3495,16 @@
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32">
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32"/>
@@ -3483,7 +3512,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3504,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.4">
@@ -3518,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G33">
         <v>79</v>
@@ -3574,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -3707,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -3715,7 +3744,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -3723,7 +3752,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9005958-6EAE-438D-BC0E-5761BFAB5D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C758E-E078-4B1C-9A04-17FEA8C97C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="348" yWindow="636" windowWidth="15816" windowHeight="8760" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -617,40 +615,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確率で即死ぬ</t>
-    <rPh sb="0" eb="2">
-      <t>カクリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>即死ぬ呪い弓</t>
-    <rPh sb="0" eb="2">
-      <t>ソクシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ノロ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ユミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>即死ぬ呪い剣</t>
-    <rPh sb="5" eb="6">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>即死ぬ呪い杖</t>
-    <rPh sb="5" eb="6">
-      <t>ツエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Skill_106_R1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -679,36 +643,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>氷剣</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氷弓</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ユミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氷杖</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Skill_115_R1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -730,13 +664,6 @@
   </si>
   <si>
     <t>Skill_115_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氷</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -860,6 +787,106 @@
   </si>
   <si>
     <t>Textures/skill_2d_027</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇討ち（剣）</t>
+    <rPh sb="0" eb="2">
+      <t>ヤミウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇討ち（弓）</t>
+    <rPh sb="0" eb="2">
+      <t>ヤミウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇討ち（杖）</t>
+    <rPh sb="0" eb="2">
+      <t>ヤミウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷結（剣）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウケツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷結（弓）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウケツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷結（杖）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウケツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率で倒す</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵にダメージを与えて動きを止める</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広範囲に連続ダメージ</t>
+    <rPh sb="0" eb="3">
+      <t>コウハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ジャンプ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1554,33 +1581,33 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="X17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16" width="10.125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.875" customWidth="1"/>
-    <col min="22" max="22" width="13.125" customWidth="1"/>
-    <col min="23" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.75" customWidth="1"/>
+    <col min="9" max="16" width="10.09765625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.09765625" customWidth="1"/>
+    <col min="19" max="19" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.8984375" customWidth="1"/>
+    <col min="22" max="22" width="13.09765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" customWidth="1"/>
+    <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
         <v>30</v>
@@ -1669,7 +1696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1687,7 +1714,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1708,7 +1735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1774,7 +1801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1837,7 +1864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1897,7 +1924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1964,7 +1991,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2028,7 +2055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2056,7 +2083,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -2098,7 +2125,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101</v>
       </c>
@@ -2163,7 +2190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102</v>
       </c>
@@ -2237,7 +2264,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2251,10 +2278,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G12">
         <v>78</v>
@@ -2310,7 +2337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2417,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2457,7 +2484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2477,7 +2504,7 @@
         <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -2521,7 +2548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2585,12 +2612,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -2649,7 +2676,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2678,7 +2705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2707,7 +2734,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2736,30 +2763,30 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G21">
         <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2767,7 +2794,7 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2780,7 +2807,7 @@
         <v>5</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21">
         <v>360</v>
@@ -2804,33 +2831,33 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>113</v>
       </c>
       <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G22">
         <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2840,7 +2867,7 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -2853,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="S22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V22">
         <v>0.5</v>
@@ -2874,33 +2901,33 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G23">
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2910,7 +2937,7 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -2923,7 +2950,7 @@
         <v>5</v>
       </c>
       <c r="S23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V23">
         <v>0.5</v>
@@ -2944,33 +2971,33 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G24">
         <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2978,7 +3005,7 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -2991,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24">
         <v>360</v>
@@ -3015,33 +3042,33 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G25">
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -3051,7 +3078,7 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3064,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="S25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U25">
         <v>3</v>
@@ -3088,33 +3115,33 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G26">
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3124,7 +3151,7 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O26">
         <v>3</v>
@@ -3137,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="S26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U26">
         <v>3</v>
@@ -3161,24 +3188,24 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G27">
         <v>78</v>
@@ -3188,7 +3215,7 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -3227,18 +3254,18 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3258,7 +3285,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3300,15 +3327,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3334,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3374,15 +3401,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3408,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -3448,15 +3475,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -3466,7 +3493,7 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M31">
         <v>0.5</v>
@@ -3487,24 +3514,24 @@
         <v>1</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D32">
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32"/>
@@ -3512,7 +3539,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3533,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -3592,7 +3619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -3666,7 +3693,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3681,9 +3708,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3691,7 +3718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3699,7 +3726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3707,7 +3734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3715,7 +3742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3723,7 +3750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3731,28 +3758,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C758E-E078-4B1C-9A04-17FEA8C97C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE9D60-3105-40E2-8087-AB6C1A492FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="636" windowWidth="15816" windowHeight="8760" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,10 +687,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Skill_112_1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,7 +882,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2ジャンプ</t>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>201</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1581,10 +1581,10 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="X17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2083,7 +2083,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2768,16 +2768,16 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>133</v>
@@ -2794,7 +2794,7 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2804,7 +2804,7 @@
         <v>100</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S21">
         <v>10</v>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.45">
@@ -2839,16 +2839,16 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>133</v>
@@ -2877,7 +2877,7 @@
         <v>103</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S22">
         <v>20</v>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.45">
@@ -2909,16 +2909,16 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>133</v>
@@ -2947,7 +2947,7 @@
         <v>102</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S23">
         <v>20</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.45">
@@ -2979,16 +2979,16 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>134</v>
@@ -3015,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S24">
         <v>10</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.45">
@@ -3050,16 +3050,16 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>134</v>
@@ -3088,7 +3088,7 @@
         <v>103</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S25">
         <v>20</v>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.45">
@@ -3123,16 +3123,16 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>134</v>
@@ -3161,7 +3161,7 @@
         <v>102</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S26">
         <v>20</v>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.45">
@@ -3196,16 +3196,16 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="G27">
         <v>78</v>
@@ -3215,7 +3215,7 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -3227,7 +3227,7 @@
         <v>102</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S27">
         <v>30</v>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.45">
@@ -3262,10 +3262,10 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3285,7 +3285,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3332,10 +3332,10 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3361,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3406,10 +3406,10 @@
         <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -3480,10 +3480,10 @@
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -3493,7 +3493,7 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M31">
         <v>0.5</v>
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
@@ -3522,16 +3522,16 @@
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32">
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32"/>
@@ -3539,7 +3539,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.45">
@@ -3763,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -3771,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -3779,7 +3779,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE9D60-3105-40E2-8087-AB6C1A492FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD480CEF-1AD4-4D37-A9A7-A9A3C288EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="173">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -551,25 +551,7 @@
     <t>魔法で、範囲内の敵すべてに攻撃する。</t>
   </si>
   <si>
-    <t>矢を連射して敵を攻撃する</t>
-  </si>
-  <si>
     <t>矢の連射で、範囲内の敵すべてに攻撃する。</t>
-  </si>
-  <si>
-    <t>HPを大幅に回復する</t>
-  </si>
-  <si>
-    <t>HPを回復する</t>
-  </si>
-  <si>
-    <t>HPを少量回復する</t>
-  </si>
-  <si>
-    <t>攻撃力が大幅に上昇する</t>
-  </si>
-  <si>
-    <t>攻撃力が上昇する</t>
   </si>
   <si>
     <t>攻撃力が少量上昇する。</t>
@@ -846,17 +828,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確率で倒す</t>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲の敵すべてに攻撃する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢を連射して敵を攻撃する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを大幅に回復する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを回復する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを少量回復する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が大幅に上昇する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が上昇する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率で敵を一瞬にして倒す。</t>
     <rPh sb="0" eb="2">
       <t>カクリツ</t>
     </rPh>
     <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>タオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵にダメージを与えて動きを止める</t>
+    <t>敵にダメージを与えて動きを止める。</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
@@ -872,21 +896,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広範囲に連続ダメージ</t>
+    <t>広範囲に連続ダメージを与える。
+スキル使用中、プレイヤーの向きを変更できる。</t>
     <rPh sb="0" eb="3">
       <t>コウハンイ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>レンゾク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>201</t>
+    <rPh sb="11" eb="12">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シヨウチュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプすることができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度がアップする。</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -960,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +1018,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,7 +1630,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1605,6 +1651,7 @@
     <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.69921875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.69921875" customWidth="1"/>
+    <col min="29" max="29" width="40.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">
@@ -1624,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
         <v>30</v>
@@ -1701,7 +1748,7 @@
         <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1"/>
       <c r="H2"/>
@@ -1719,7 +1766,7 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1"/>
       <c r="H3"/>
@@ -2083,7 +2130,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -2122,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.45">
@@ -2139,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <v>79</v>
@@ -2195,7 +2242,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -2269,7 +2316,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
@@ -2278,10 +2325,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G12">
         <v>78</v>
@@ -2351,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -2407,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.45">
@@ -2424,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G14">
         <v>77</v>
@@ -2444,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2481,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.45">
@@ -2504,7 +2551,7 @@
         <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -2545,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.45">
@@ -2609,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.45">
@@ -2617,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -2673,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.45">
@@ -2681,7 +2728,7 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>75</v>
@@ -2702,7 +2749,7 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="AC18" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.45">
@@ -2731,7 +2778,7 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="AC19" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.45">
@@ -2739,7 +2786,7 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -2760,7 +2807,7 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="AC20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.45">
@@ -2768,25 +2815,25 @@
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G21">
         <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2794,7 +2841,7 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2831,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.45">
@@ -2839,25 +2886,25 @@
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G22">
         <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2867,7 +2914,7 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -2901,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.45">
@@ -2909,25 +2956,25 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G23">
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2937,7 +2984,7 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -2971,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.45">
@@ -2979,25 +3026,25 @@
         <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G24">
         <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -3005,7 +3052,7 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -3042,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.45">
@@ -3050,25 +3097,25 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G25">
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -3078,7 +3125,7 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3115,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.45">
@@ -3123,25 +3170,25 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G26">
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3151,7 +3198,7 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O26">
         <v>3</v>
@@ -3188,24 +3235,24 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G27">
         <v>78</v>
@@ -3215,7 +3262,7 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -3253,8 +3300,8 @@
       <c r="AB27">
         <v>1</v>
       </c>
-      <c r="AC27" t="s">
-        <v>167</v>
+      <c r="AC27" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.45">
@@ -3262,10 +3309,10 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3285,7 +3332,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3332,16 +3379,16 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G29">
         <v>77</v>
@@ -3361,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3398,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.45">
@@ -3406,10 +3453,10 @@
         <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3435,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -3480,10 +3527,10 @@
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -3493,7 +3540,7 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M31">
         <v>0.5</v>
@@ -3514,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
@@ -3522,16 +3569,16 @@
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D32">
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32"/>
@@ -3539,7 +3586,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3560,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.45">
@@ -3574,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G33">
         <v>79</v>
@@ -3630,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -3763,7 +3810,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -3771,7 +3818,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -3779,7 +3826,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD480CEF-1AD4-4D37-A9A7-A9A3C288EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02101233-AE3F-4C73-998F-1D26710B05EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -929,6 +929,41 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲回復</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_500_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_10000_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲内のターゲットを回復する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1290,8 +1325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC34" totalsRowShown="0">
-  <autoFilter ref="A1:AC34" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC35" totalsRowShown="0">
+  <autoFilter ref="A1:AC35" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
@@ -1624,37 +1659,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC33" sqref="AC33"/>
+      <selection pane="bottomRight" activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16" width="10.09765625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.09765625" customWidth="1"/>
-    <col min="19" max="19" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.8984375" customWidth="1"/>
-    <col min="22" max="22" width="13.09765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" customWidth="1"/>
-    <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.69921875" customWidth="1"/>
-    <col min="29" max="29" width="40.59765625" customWidth="1"/>
+    <col min="9" max="16" width="10.125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="13.125" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" customWidth="1"/>
+    <col min="29" max="29" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1761,7 +1796,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1782,7 +1817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1848,7 +1883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1911,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1971,7 +2006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -2038,7 +2073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2102,7 +2137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2172,7 +2207,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>101</v>
       </c>
@@ -2237,7 +2272,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>102</v>
       </c>
@@ -2311,7 +2346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2384,7 +2419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2531,7 +2566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2595,7 +2630,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2752,7 +2787,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2781,7 +2816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2810,7 +2845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>112</v>
       </c>
@@ -2881,7 +2916,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>113</v>
       </c>
@@ -2951,7 +2986,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>114</v>
       </c>
@@ -3021,7 +3056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>115</v>
       </c>
@@ -3092,7 +3127,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>116</v>
       </c>
@@ -3165,7 +3200,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>117</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>118</v>
       </c>
@@ -3304,7 +3339,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>119</v>
       </c>
@@ -3374,7 +3409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>120</v>
       </c>
@@ -3448,7 +3483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>121</v>
       </c>
@@ -3522,7 +3557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>500</v>
       </c>
@@ -3564,7 +3599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>501</v>
       </c>
@@ -3586,7 +3621,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3610,7 +3645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -3666,7 +3701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -3720,6 +3755,51 @@
       </c>
       <c r="AC34" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>10000</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R35">
+        <v>60</v>
+      </c>
+      <c r="T35">
+        <v>360</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3820,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3752,12 +3832,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3765,7 +3845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3773,7 +3853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3781,7 +3861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3789,7 +3869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3797,7 +3877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3805,7 +3885,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3813,7 +3893,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>100</v>
       </c>
@@ -3821,7 +3906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>101</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02101233-AE3F-4C73-998F-1D26710B05EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9857688-6AA5-449A-8CAC-8BB966415F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1662,10 +1662,10 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W37" sqref="W37"/>
+      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3763,6 +3763,9 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>174</v>
@@ -3829,10 +3832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB5D61-8D30-4CD9-B090-D9C9F63F174F}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3890,27 +3893,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>8</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9857688-6AA5-449A-8CAC-8BB966415F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FCCC8-E8ED-4A7F-9814-D4EAFBCD8907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1662,10 +1662,10 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomRight" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3780,9 +3780,6 @@
       <c r="R35">
         <v>60</v>
       </c>
-      <c r="T35">
-        <v>360</v>
-      </c>
       <c r="U35">
         <v>3</v>
       </c>
@@ -3793,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FCCC8-E8ED-4A7F-9814-D4EAFBCD8907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A44F2-34DD-4E51-9953-28DC79B681F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -943,28 +943,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Skill_500_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_10000_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>範囲内のターゲットを回復する</t>
-    <rPh sb="0" eb="2">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイフク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1325,8 +1304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC35" totalsRowShown="0">
-  <autoFilter ref="A1:AC35" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC34" totalsRowShown="0">
+  <autoFilter ref="A1:AC34" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
@@ -1659,13 +1638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z33" sqref="Z33"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3621,7 +3600,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3755,51 +3734,6 @@
       </c>
       <c r="AC34" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>10000</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="L35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R35">
-        <v>60</v>
-      </c>
-      <c r="U35">
-        <v>3</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A44F2-34DD-4E51-9953-28DC79B681F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D8803-DA22-4F8E-80A6-F8DAB5A33E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1641,34 +1641,34 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16" width="10.125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.875" customWidth="1"/>
-    <col min="22" max="22" width="13.125" customWidth="1"/>
-    <col min="23" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.75" customWidth="1"/>
-    <col min="29" max="29" width="40.625" customWidth="1"/>
+    <col min="9" max="16" width="10.09765625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.09765625" customWidth="1"/>
+    <col min="19" max="19" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.8984375" customWidth="1"/>
+    <col min="22" max="22" width="13.09765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" customWidth="1"/>
+    <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.69921875" customWidth="1"/>
+    <col min="29" max="29" width="40.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>20</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>112</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>15</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T21">
         <v>360</v>
@@ -2895,7 +2895,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>113</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>114</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>115</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>15</v>
       </c>
       <c r="S24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <v>360</v>
@@ -3106,7 +3106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>116</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>117</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>118</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>30</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V27">
         <v>0.5</v>
@@ -3318,7 +3318,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>119</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>120</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>121</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>500</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>501</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -3754,7 +3754,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3769,9 +3769,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D8803-DA22-4F8E-80A6-F8DAB5A33E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F99C2-EDAD-4994-8C4F-792058586CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -944,6 +944,27 @@
   </si>
   <si>
     <t>Skill_500_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_10000_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲内のターゲットを回復する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイフク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1304,8 +1325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC34" totalsRowShown="0">
-  <autoFilter ref="A1:AC34" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC35" totalsRowShown="0">
+  <autoFilter ref="A1:AC35" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
@@ -1638,37 +1659,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16" width="10.09765625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.09765625" customWidth="1"/>
-    <col min="19" max="19" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.8984375" customWidth="1"/>
-    <col min="22" max="22" width="13.09765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" customWidth="1"/>
-    <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.69921875" customWidth="1"/>
-    <col min="29" max="29" width="40.59765625" customWidth="1"/>
+    <col min="9" max="16" width="10.125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="13.125" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" customWidth="1"/>
+    <col min="29" max="29" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1775,7 +1796,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1796,7 +1817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1862,7 +1883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1925,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1985,7 +2006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -2052,7 +2073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2116,7 +2137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2186,7 +2207,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>101</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>102</v>
       </c>
@@ -2325,7 +2346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2398,7 +2419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2471,7 +2492,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2545,7 +2566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2609,7 +2630,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2673,7 +2694,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2766,7 +2787,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2795,7 +2816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2824,7 +2845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>112</v>
       </c>
@@ -2895,7 +2916,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>113</v>
       </c>
@@ -2965,7 +2986,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>114</v>
       </c>
@@ -3035,7 +3056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>115</v>
       </c>
@@ -3106,7 +3127,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>116</v>
       </c>
@@ -3179,7 +3200,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>117</v>
       </c>
@@ -3252,7 +3273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>118</v>
       </c>
@@ -3318,7 +3339,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>119</v>
       </c>
@@ -3388,7 +3409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>120</v>
       </c>
@@ -3462,7 +3483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>121</v>
       </c>
@@ -3536,7 +3557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>500</v>
       </c>
@@ -3578,7 +3599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>501</v>
       </c>
@@ -3624,7 +3645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -3680,7 +3701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -3734,6 +3755,51 @@
       </c>
       <c r="AC34" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>10000</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R35">
+        <v>60</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3754,7 +3820,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3769,9 +3835,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3779,7 +3845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3787,7 +3853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3795,7 +3861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3803,7 +3869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3811,7 +3877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3819,7 +3885,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3827,7 +3893,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
@@ -3835,7 +3901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F99C2-EDAD-4994-8C4F-792058586CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B32920-EBE0-4E73-BA39-264AF4A09C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="186">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -965,6 +965,56 @@
     <rPh sb="10" eb="12">
       <t>カイフク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全マップ</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全マップ攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全部敵を攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_102_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_122_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1325,8 +1375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC35" totalsRowShown="0">
-  <autoFilter ref="A1:AC35" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}" name="テーブル1" displayName="テーブル1" ref="A1:AC36" totalsRowShown="0">
+  <autoFilter ref="A1:AC36" xr:uid="{CD6020EB-6849-49BA-AE56-0F4B4B9FC976}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{1743D748-8DE1-41BC-9BC6-6EDB6497FF54}" name="ID"/>
     <tableColumn id="6" xr3:uid="{ABA06E83-C278-4B55-8421-6B5FBC5912A7}" name="Icon"/>
@@ -1659,13 +1709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515E6A-63B3-4D7C-A891-8B614F6BA334}">
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3511,7 +3561,7 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -3559,72 +3609,93 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>500</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="M31">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
+      <c r="Q31">
+        <v>102</v>
+      </c>
       <c r="R31">
         <v>5</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31">
+        <v>25</v>
+      </c>
+      <c r="Y31">
+        <v>0.2</v>
+      </c>
+      <c r="Z31">
         <v>0</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
-      <c r="AC31" s="1" t="s">
-        <v>171</v>
+      <c r="AC31" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>101</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32"/>
-      <c r="I32"/>
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -3642,77 +3713,70 @@
         <v>1</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
+        <v>501</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33">
-        <v>79</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G33" s="2"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
+      <c r="L33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33">
-        <v>80</v>
-      </c>
       <c r="R33">
-        <v>3</v>
-      </c>
-      <c r="S33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0.6</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>1</v>
       </c>
-      <c r="AC33" t="s">
-        <v>74</v>
+      <c r="AC33" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="G34">
+        <v>79</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -3724,22 +3788,19 @@
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>4</v>
-      </c>
-      <c r="T34">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="X34">
         <v>1</v>
@@ -3748,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AB34">
         <v>1</v>
@@ -3759,46 +3820,102 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A35">
+        <v>1001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35">
+        <v>81</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>60</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>10000</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>7</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="L35" s="2" t="s">
+      <c r="G36" s="2"/>
+      <c r="L36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <v>60</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>3</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="s">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3832,7 +3949,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3893,6 +4010,14 @@
         <v>173</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B32920-EBE0-4E73-BA39-264AF4A09C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932E103-2525-4294-B5BB-D41ED213C4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="187">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1015,6 +1015,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_028</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1715,7 +1719,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="T18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3612,7 +3616,7 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>178</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932E103-2525-4294-B5BB-D41ED213C4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA2837-A16C-40BE-8734-8F3EC6164EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20316" windowHeight="11352" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,13 +968,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全マップ</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全マップ攻撃</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
@@ -993,32 +986,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全部敵を攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンブ</t>
+    <t>Skill_102_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill_122_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/skill_2d_028</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日の出</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド全体に、聖なる日の出攻撃をする。</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_102_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill_122_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/skill_2d_028</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1716,34 +1725,34 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16" width="10.125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.875" customWidth="1"/>
-    <col min="22" max="22" width="13.125" customWidth="1"/>
-    <col min="23" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.75" customWidth="1"/>
-    <col min="29" max="29" width="40.625" customWidth="1"/>
+    <col min="9" max="16" width="10.09765625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.09765625" customWidth="1"/>
+    <col min="19" max="19" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.8984375" customWidth="1"/>
+    <col min="22" max="22" width="13.09765625" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" customWidth="1"/>
+    <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.69921875" customWidth="1"/>
+    <col min="29" max="29" width="40.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1850,7 +1859,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1871,7 +1880,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>20</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2748,7 +2757,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>112</v>
       </c>
@@ -2970,7 +2979,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>113</v>
       </c>
@@ -3040,7 +3049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>114</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>115</v>
       </c>
@@ -3181,7 +3190,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>116</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>117</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>118</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>119</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>120</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>121</v>
       </c>
@@ -3565,7 +3574,7 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -3611,34 +3620,34 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M31">
         <v>8</v>
@@ -3671,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>500</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>501</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1001</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>10000</v>
       </c>
@@ -3941,7 +3950,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3956,9 +3965,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4014,15 +4023,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -4030,7 +4039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA2837-A16C-40BE-8734-8F3EC6164EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12946D6B-27C9-43BC-BAB1-394F685E5F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="20316" windowHeight="11352" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
@@ -1725,10 +1725,10 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3659,7 +3659,7 @@
         <v>102</v>
       </c>
       <c r="R31">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="V31">
         <v>1</v>

--- a/Config/Excel/Skill.xlsx
+++ b/Config/Excel/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12946D6B-27C9-43BC-BAB1-394F685E5F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697CE28-9554-4530-A7BD-D05B97C60C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20316" windowHeight="11352" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4D7DD3E-70FB-404F-B4F3-4A73DF1B200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1728,31 +1728,31 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="E31:F31"/>
+      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16" width="10.09765625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.09765625" customWidth="1"/>
-    <col min="19" max="19" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.8984375" customWidth="1"/>
-    <col min="22" max="22" width="13.09765625" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" customWidth="1"/>
-    <col min="24" max="24" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.69921875" customWidth="1"/>
-    <col min="29" max="29" width="40.59765625" customWidth="1"/>
+    <col min="9" max="16" width="10.125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="13.125" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" customWidth="1"/>
+    <col min="29" max="29" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>101</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>102</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>103</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>106</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>107</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>108</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>109</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>112</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>113</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>114</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>115</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>116</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>117</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>118</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>119</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>120</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>121</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>122</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>500</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>501</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>3</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1001</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>10000</v>
       </c>
@@ -3950,7 +3950,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3965,9 +3965,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
